--- a/va_facility_data_2025-02-20/Marianna VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Marianna%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Marianna VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Marianna%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R8e867d677896405383250ac1d6b7ce49"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R6ea623c42af1481fb781d392b49496e0"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R91cf1413bcd74db298f0b1f42c98da1d"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R0b4a7519e1dd46dfb7033a03af3a3305"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rd17e15ed8ce74d77bb916cc708a87aee"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rb7ad3fdc70b14dd2b3c668a0b94bedca"/>
   </x:sheets>
 </x:workbook>
 </file>
